--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H2">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I2">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J2">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.21252070570348</v>
+        <v>0.5610396666666667</v>
       </c>
       <c r="N2">
-        <v>7.21252070570348</v>
+        <v>1.683119</v>
       </c>
       <c r="O2">
-        <v>0.730089515016234</v>
+        <v>0.04888859506813145</v>
       </c>
       <c r="P2">
-        <v>0.730089515016234</v>
+        <v>0.04888859506813144</v>
       </c>
       <c r="Q2">
-        <v>51.48996754976836</v>
+        <v>4.245490201952112</v>
       </c>
       <c r="R2">
-        <v>51.48996754976836</v>
+        <v>38.20941181756901</v>
       </c>
       <c r="S2">
-        <v>0.1520309183158425</v>
+        <v>0.01028963184087445</v>
       </c>
       <c r="T2">
-        <v>0.1520309183158425</v>
+        <v>0.01028963184087445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H3">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I3">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J3">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.66643325454221</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N3">
-        <v>2.66643325454221</v>
+        <v>21.708397</v>
       </c>
       <c r="O3">
-        <v>0.269910484983766</v>
+        <v>0.6305513932830891</v>
       </c>
       <c r="P3">
-        <v>0.269910484983766</v>
+        <v>0.630551393283089</v>
       </c>
       <c r="Q3">
-        <v>19.03558649633166</v>
+        <v>54.75714240263856</v>
       </c>
       <c r="R3">
-        <v>19.03558649633166</v>
+        <v>492.814281623747</v>
       </c>
       <c r="S3">
-        <v>0.05620507903643011</v>
+        <v>0.1327127867878287</v>
       </c>
       <c r="T3">
-        <v>0.05620507903643011</v>
+        <v>0.1327127867878287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.246812125344951</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H4">
-        <v>8.246812125344951</v>
+        <v>22.701551</v>
       </c>
       <c r="I4">
-        <v>0.2405505548201855</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J4">
-        <v>0.2405505548201855</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.21252070570348</v>
+        <v>3.678708333333333</v>
       </c>
       <c r="N4">
-        <v>7.21252070570348</v>
+        <v>11.036125</v>
       </c>
       <c r="O4">
-        <v>0.730089515016234</v>
+        <v>0.3205600116487796</v>
       </c>
       <c r="P4">
-        <v>0.730089515016234</v>
+        <v>0.3205600116487795</v>
       </c>
       <c r="Q4">
-        <v>59.48030321009698</v>
+        <v>27.83746161443056</v>
       </c>
       <c r="R4">
-        <v>59.48030321009698</v>
+        <v>250.537154529875</v>
       </c>
       <c r="S4">
-        <v>0.1756234379055552</v>
+        <v>0.06746858849544839</v>
       </c>
       <c r="T4">
-        <v>0.1756234379055552</v>
+        <v>0.06746858849544836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H5">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I5">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J5">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.66643325454221</v>
+        <v>0.5610396666666667</v>
       </c>
       <c r="N5">
-        <v>2.66643325454221</v>
+        <v>1.683119</v>
       </c>
       <c r="O5">
-        <v>0.269910484983766</v>
+        <v>0.04888859506813145</v>
       </c>
       <c r="P5">
-        <v>0.269910484983766</v>
+        <v>0.04888859506813144</v>
       </c>
       <c r="Q5">
-        <v>21.9895740949817</v>
+        <v>4.741337807405001</v>
       </c>
       <c r="R5">
-        <v>21.9895740949817</v>
+        <v>42.67204026664501</v>
       </c>
       <c r="S5">
-        <v>0.06492711691463027</v>
+        <v>0.01149139867263947</v>
       </c>
       <c r="T5">
-        <v>0.06492711691463027</v>
+        <v>0.01149139867263946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.42285064289895</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H6">
-        <v>9.42285064289895</v>
+        <v>25.352955</v>
       </c>
       <c r="I6">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J6">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.21252070570348</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N6">
-        <v>7.21252070570348</v>
+        <v>21.708397</v>
       </c>
       <c r="O6">
-        <v>0.730089515016234</v>
+        <v>0.6305513932830891</v>
       </c>
       <c r="P6">
-        <v>0.730089515016234</v>
+        <v>0.630551393283089</v>
       </c>
       <c r="Q6">
-        <v>67.96250536866003</v>
+        <v>61.15244580701501</v>
       </c>
       <c r="R6">
-        <v>67.96250536866003</v>
+        <v>550.3720122631349</v>
       </c>
       <c r="S6">
-        <v>0.2006682581855549</v>
+        <v>0.1482128384688965</v>
       </c>
       <c r="T6">
-        <v>0.2006682581855549</v>
+        <v>0.1482128384688965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.42285064289895</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H7">
-        <v>9.42285064289895</v>
+        <v>25.352955</v>
       </c>
       <c r="I7">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J7">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.66643325454221</v>
+        <v>3.678708333333333</v>
       </c>
       <c r="N7">
-        <v>2.66643325454221</v>
+        <v>11.036125</v>
       </c>
       <c r="O7">
-        <v>0.269910484983766</v>
+        <v>0.3205600116487796</v>
       </c>
       <c r="P7">
-        <v>0.269910484983766</v>
+        <v>0.3205600116487795</v>
       </c>
       <c r="Q7">
-        <v>25.12540230681021</v>
+        <v>31.088708944375</v>
       </c>
       <c r="R7">
-        <v>25.12540230681021</v>
+        <v>279.798380499375</v>
       </c>
       <c r="S7">
-        <v>0.0741860631795354</v>
+        <v>0.07534851200425119</v>
       </c>
       <c r="T7">
-        <v>0.0741860631795354</v>
+        <v>0.07534851200425116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.06897357444559</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H8">
-        <v>6.06897357444559</v>
+        <v>28.330744</v>
       </c>
       <c r="I8">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J8">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.21252070570348</v>
+        <v>0.5610396666666667</v>
       </c>
       <c r="N8">
-        <v>7.21252070570348</v>
+        <v>1.683119</v>
       </c>
       <c r="O8">
-        <v>0.730089515016234</v>
+        <v>0.04888859506813145</v>
       </c>
       <c r="P8">
-        <v>0.730089515016234</v>
+        <v>0.04888859506813144</v>
       </c>
       <c r="Q8">
-        <v>43.77259756805609</v>
+        <v>5.29822372339289</v>
       </c>
       <c r="R8">
-        <v>43.77259756805609</v>
+        <v>47.684013510536</v>
       </c>
       <c r="S8">
-        <v>0.129244365883686</v>
+        <v>0.01284110171759026</v>
       </c>
       <c r="T8">
-        <v>0.129244365883686</v>
+        <v>0.01284110171759026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.06897357444559</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H9">
-        <v>6.06897357444559</v>
+        <v>28.330744</v>
       </c>
       <c r="I9">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J9">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.66643325454221</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N9">
-        <v>2.66643325454221</v>
+        <v>21.708397</v>
       </c>
       <c r="O9">
-        <v>0.269910484983766</v>
+        <v>0.6305513932830891</v>
       </c>
       <c r="P9">
-        <v>0.269910484983766</v>
+        <v>0.630551393283089</v>
       </c>
       <c r="Q9">
-        <v>16.18251295983962</v>
+        <v>68.33500422859645</v>
       </c>
       <c r="R9">
-        <v>16.18251295983962</v>
+        <v>615.015038057368</v>
       </c>
       <c r="S9">
-        <v>0.04778100323260951</v>
+        <v>0.1656209299537533</v>
       </c>
       <c r="T9">
-        <v>0.04778100323260951</v>
+        <v>0.1656209299537532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.40546641079546</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H10">
-        <v>3.40546641079546</v>
+        <v>28.330744</v>
       </c>
       <c r="I10">
-        <v>0.09933375734615615</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J10">
-        <v>0.09933375734615615</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.21252070570348</v>
+        <v>3.678708333333333</v>
       </c>
       <c r="N10">
-        <v>7.21252070570348</v>
+        <v>11.036125</v>
       </c>
       <c r="O10">
-        <v>0.730089515016234</v>
+        <v>0.3205600116487796</v>
       </c>
       <c r="P10">
-        <v>0.730089515016234</v>
+        <v>0.3205600116487795</v>
       </c>
       <c r="Q10">
-        <v>24.56199700043997</v>
+        <v>34.74018134744445</v>
       </c>
       <c r="R10">
-        <v>24.56199700043997</v>
+        <v>312.661632127</v>
       </c>
       <c r="S10">
-        <v>0.07252253472559542</v>
+        <v>0.08419844567914735</v>
       </c>
       <c r="T10">
-        <v>0.07252253472559542</v>
+        <v>0.08419844567914732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.387937333333333</v>
+      </c>
+      <c r="H11">
+        <v>19.163812</v>
+      </c>
+      <c r="I11">
+        <v>0.1776718609216568</v>
+      </c>
+      <c r="J11">
+        <v>0.1776718609216568</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.5610396666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.683119</v>
+      </c>
+      <c r="O11">
+        <v>0.04888859506813145</v>
+      </c>
+      <c r="P11">
+        <v>0.04888859506813144</v>
+      </c>
+      <c r="Q11">
+        <v>3.583886232180889</v>
+      </c>
+      <c r="R11">
+        <v>32.254976089628</v>
+      </c>
+      <c r="S11">
+        <v>0.008686127663600249</v>
+      </c>
+      <c r="T11">
+        <v>0.008686127663600249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.387937333333333</v>
+      </c>
+      <c r="H12">
+        <v>19.163812</v>
+      </c>
+      <c r="I12">
+        <v>0.1776718609216568</v>
+      </c>
+      <c r="J12">
+        <v>0.1776718609216568</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.236132333333333</v>
+      </c>
+      <c r="N12">
+        <v>21.708397</v>
+      </c>
+      <c r="O12">
+        <v>0.6305513932830891</v>
+      </c>
+      <c r="P12">
+        <v>0.630551393283089</v>
+      </c>
+      <c r="Q12">
+        <v>46.22395988104044</v>
+      </c>
+      <c r="R12">
+        <v>416.0156389293639</v>
+      </c>
+      <c r="S12">
+        <v>0.1120312394513499</v>
+      </c>
+      <c r="T12">
+        <v>0.1120312394513499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.40546641079546</v>
-      </c>
-      <c r="H11">
-        <v>3.40546641079546</v>
-      </c>
-      <c r="I11">
-        <v>0.09933375734615615</v>
-      </c>
-      <c r="J11">
-        <v>0.09933375734615615</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.66643325454221</v>
-      </c>
-      <c r="N11">
-        <v>2.66643325454221</v>
-      </c>
-      <c r="O11">
-        <v>0.269910484983766</v>
-      </c>
-      <c r="P11">
-        <v>0.269910484983766</v>
-      </c>
-      <c r="Q11">
-        <v>9.080448884971517</v>
-      </c>
-      <c r="R11">
-        <v>9.080448884971517</v>
-      </c>
-      <c r="S11">
-        <v>0.02681122262056074</v>
-      </c>
-      <c r="T11">
-        <v>0.02681122262056074</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.387937333333333</v>
+      </c>
+      <c r="H13">
+        <v>19.163812</v>
+      </c>
+      <c r="I13">
+        <v>0.1776718609216568</v>
+      </c>
+      <c r="J13">
+        <v>0.1776718609216568</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.678708333333333</v>
+      </c>
+      <c r="N13">
+        <v>11.036125</v>
+      </c>
+      <c r="O13">
+        <v>0.3205600116487796</v>
+      </c>
+      <c r="P13">
+        <v>0.3205600116487795</v>
+      </c>
+      <c r="Q13">
+        <v>23.49935830094444</v>
+      </c>
+      <c r="R13">
+        <v>211.4942247085</v>
+      </c>
+      <c r="S13">
+        <v>0.05695449380670666</v>
+      </c>
+      <c r="T13">
+        <v>0.05695449380670665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H14">
+        <v>12.311642</v>
+      </c>
+      <c r="I14">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J14">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.5610396666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.683119</v>
+      </c>
+      <c r="O14">
+        <v>0.04888859506813145</v>
+      </c>
+      <c r="P14">
+        <v>0.04888859506813144</v>
+      </c>
+      <c r="Q14">
+        <v>2.302439841266444</v>
+      </c>
+      <c r="R14">
+        <v>20.721958571398</v>
+      </c>
+      <c r="S14">
+        <v>0.005580335173427015</v>
+      </c>
+      <c r="T14">
+        <v>0.005580335173427014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H15">
+        <v>12.311642</v>
+      </c>
+      <c r="I15">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J15">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.236132333333333</v>
+      </c>
+      <c r="N15">
+        <v>21.708397</v>
+      </c>
+      <c r="O15">
+        <v>0.6305513932830891</v>
+      </c>
+      <c r="P15">
+        <v>0.630551393283089</v>
+      </c>
+      <c r="Q15">
+        <v>29.69622358420822</v>
+      </c>
+      <c r="R15">
+        <v>267.266012257874</v>
+      </c>
+      <c r="S15">
+        <v>0.07197359862126058</v>
+      </c>
+      <c r="T15">
+        <v>0.07197359862126056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H16">
+        <v>12.311642</v>
+      </c>
+      <c r="I16">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J16">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.678708333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.036125</v>
+      </c>
+      <c r="O16">
+        <v>0.3205600116487796</v>
+      </c>
+      <c r="P16">
+        <v>0.3205600116487795</v>
+      </c>
+      <c r="Q16">
+        <v>15.09698000747222</v>
+      </c>
+      <c r="R16">
+        <v>135.87282006725</v>
+      </c>
+      <c r="S16">
+        <v>0.03658997166322596</v>
+      </c>
+      <c r="T16">
+        <v>0.03658997166322595</v>
       </c>
     </row>
   </sheetData>
